--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aceshiny.bmrn.com\rsys\qsci\csm\bmn111\111206\csm202108a\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\csmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63963149-9F8E-44F2-8898-451965EDD6E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E462F46-DAE7-49F8-81B6-4954CCD16FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1095" windowWidth="16095" windowHeight="9360" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="4050" windowWidth="21600" windowHeight="11325" tabRatio="607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Configuration Parameter" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -970,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1089,9 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\csmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E462F46-DAE7-49F8-81B6-4954CCD16FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79DEF71-6A28-4384-B83E-6AA4301C321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="4050" windowWidth="21600" windowHeight="11325" tabRatio="607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Configuration Parameter" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1093,9 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
